--- a/config/PCS_450.xlsx
+++ b/config/PCS_450.xlsx
@@ -10,6 +10,7 @@
     <sheet name="遥信" sheetId="4" r:id="rId1"/>
     <sheet name="遥测" sheetId="1" r:id="rId2"/>
     <sheet name="遥调" sheetId="5" r:id="rId3"/>
+    <sheet name="遥控" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -89,6 +90,15 @@
   </si>
   <si>
     <t>PCS端口B相电压</t>
+  </si>
+  <si>
+    <t>PCS端口C相电压</t>
+  </si>
+  <si>
+    <t>U32</t>
+  </si>
+  <si>
+    <t>ABCD</t>
   </si>
   <si>
     <t>运行模式选择</t>
@@ -99,6 +109,15 @@
 2 恒压充电
 3 恒功率充电
 4 直流恒压模式</t>
+  </si>
+  <si>
+    <t>故障复位</t>
+  </si>
+  <si>
+    <t>Coils</t>
+  </si>
+  <si>
+    <t>设备启动</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1284,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="1"/>
@@ -1353,15 +1372,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.11111111111111" style="2"/>
     <col min="2" max="2" width="19.5213675213675" style="2" customWidth="1"/>
@@ -1472,6 +1491,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>203</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1483,10 +1534,10 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="1"/>
@@ -1542,13 +1593,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>301</v>
@@ -1566,6 +1617,128 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="9.11111111111111" style="2"/>
+    <col min="2" max="2" width="19.5213675213675" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.11111111111111" style="2"/>
+    <col min="6" max="6" width="10.957264957265" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.3931623931624" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.11111111111111" style="2"/>
+    <col min="9" max="9" width="11.7435897435897" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:11">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>

--- a/config/PCS_450.xlsx
+++ b/config/PCS_450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24111" windowHeight="11268" activeTab="1"/>
+    <workbookView windowWidth="24111" windowHeight="11268" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="遥信" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>寄存器类型</t>
-  </si>
-  <si>
-    <t>数量</t>
   </si>
   <si>
     <t>字节序/字序</t>
@@ -1279,12 +1276,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="1"/>
@@ -1294,12 +1291,11 @@
     <col min="3" max="5" width="9.11111111111111" style="2"/>
     <col min="6" max="6" width="10.957264957265" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.1709401709402" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.11111111111111" style="2"/>
-    <col min="9" max="9" width="11.7435897435897" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="2"/>
+    <col min="8" max="8" width="11.7435897435897" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.11111111111111" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,36 +1326,30 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1372,12 +1362,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="3"/>
@@ -1387,12 +1377,11 @@
     <col min="3" max="5" width="9.11111111111111" style="2"/>
     <col min="6" max="6" width="10.957264957265" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.3931623931624" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.11111111111111" style="2"/>
-    <col min="9" max="9" width="11.7435897435897" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="2"/>
+    <col min="8" max="8" width="11.7435897435897" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.11111111111111" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,103 +1412,91 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.1</v>
       </c>
       <c r="J2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>202</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.1</v>
       </c>
       <c r="J3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>203</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.1</v>
       </c>
       <c r="J4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1532,12 +1509,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="1"/>
@@ -1548,12 +1525,11 @@
     <col min="5" max="5" width="20.8974358974359" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.957264957265" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.3931623931624" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.11111111111111" style="2"/>
-    <col min="9" max="9" width="11.7435897435897" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="2"/>
+    <col min="8" max="8" width="11.7435897435897" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.11111111111111" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,39 +1560,33 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="90" spans="1:11">
+    <row r="2" s="2" customFormat="1" ht="90" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1629,12 +1599,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="18" outlineLevelRow="2"/>
@@ -1644,12 +1614,11 @@
     <col min="3" max="5" width="9.11111111111111" style="2"/>
     <col min="6" max="6" width="10.957264957265" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.3931623931624" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.11111111111111" style="2"/>
-    <col min="9" max="9" width="11.7435897435897" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="2"/>
+    <col min="8" max="8" width="11.7435897435897" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.11111111111111" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,65 +1649,56 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:11">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
